--- a/Connected Office Web Application User Acceptance Testing/Connected Office Test Data.xlsx
+++ b/Connected Office Web Application User Acceptance Testing/Connected Office Test Data.xlsx
@@ -1207,11 +1207,11 @@
       <x:c r="B2" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D2" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C2" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E2" s="2" t="b">
         <x:v>0</x:v>
@@ -1224,11 +1224,11 @@
       <x:c r="B3" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C3" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E3" s="2" t="b">
         <x:v>0</x:v>
@@ -1241,11 +1241,11 @@
       <x:c r="B4" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D4" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C4" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E4" s="2" t="b">
         <x:v>0</x:v>
@@ -1258,11 +1258,11 @@
       <x:c r="B5" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C5" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E5" s="2" t="b">
         <x:v>0</x:v>
@@ -1272,14 +1272,14 @@
       <x:c r="A6" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="B6" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D6" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B6" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E6" s="2" t="b">
         <x:v>0</x:v>
@@ -1289,14 +1289,14 @@
       <x:c r="A7" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="B7" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C7" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D7" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B7" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E7" s="2" t="b">
         <x:v>0</x:v>
@@ -1306,14 +1306,14 @@
       <x:c r="A8" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="B8" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B8" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E8" s="2" t="b">
         <x:v>0</x:v>
@@ -1323,14 +1323,14 @@
       <x:c r="A9" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="B9" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C9" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B9" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E9" s="2" t="b">
         <x:v>0</x:v>
@@ -1340,14 +1340,14 @@
       <x:c r="A10" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="B10" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C10" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B10" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E10" s="2" t="b">
         <x:v>0</x:v>
@@ -1357,14 +1357,14 @@
       <x:c r="A11" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="B11" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C11" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B11" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E11" s="2" t="b">
         <x:v>0</x:v>
@@ -1374,14 +1374,14 @@
       <x:c r="A12" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="B12" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C12" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D12" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B12" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E12" s="2" t="b">
         <x:v>0</x:v>
@@ -1391,14 +1391,14 @@
       <x:c r="A13" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="B13" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C13" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B13" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E13" s="2" t="b">
         <x:v>0</x:v>
@@ -1408,14 +1408,14 @@
       <x:c r="A14" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="B14" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C14" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B14" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E14" s="2" t="b">
         <x:v>0</x:v>
@@ -1425,14 +1425,14 @@
       <x:c r="A15" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="B15" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C15" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="B15" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E15" s="2" t="b">
         <x:v>0</x:v>
